--- a/config_2.2/shoping_config_cjj.xlsx
+++ b/config_2.2/shoping_config_cjj.xlsx
@@ -11461,7 +11461,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="R519" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C546" sqref="C546"/>
+      <selection pane="bottomRight" activeCell="F548" sqref="F548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45883,7 +45883,7 @@
       <c r="D542" s="63"/>
       <c r="E542" s="63"/>
       <c r="F542" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G542" s="63" t="s">
         <v>2006</v>
@@ -45957,7 +45957,7 @@
       <c r="D543" s="63"/>
       <c r="E543" s="63"/>
       <c r="F543" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G543" s="63" t="s">
         <v>2013</v>
@@ -46031,7 +46031,7 @@
       <c r="D544" s="63"/>
       <c r="E544" s="63"/>
       <c r="F544" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G544" s="63" t="s">
         <v>2014</v>
@@ -46105,7 +46105,7 @@
       <c r="D545" s="63"/>
       <c r="E545" s="63"/>
       <c r="F545" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G545" s="63" t="s">
         <v>2016</v>
@@ -46179,7 +46179,7 @@
       <c r="D546" s="63"/>
       <c r="E546" s="63"/>
       <c r="F546" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G546" s="63" t="s">
         <v>2018</v>
@@ -46253,7 +46253,7 @@
       <c r="D547" s="63"/>
       <c r="E547" s="63"/>
       <c r="F547" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G547" s="63" t="s">
         <v>2020</v>
@@ -46327,7 +46327,7 @@
       <c r="D548" s="63"/>
       <c r="E548" s="63"/>
       <c r="F548" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G548" s="63" t="s">
         <v>2024</v>

--- a/config_2.2/shoping_config_cjj.xlsx
+++ b/config_2.2/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="2025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="2028">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8644,6 +8644,18 @@
   </si>
   <si>
     <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11457,11 +11469,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN548"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="R519" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W519" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F548" sqref="F548"/>
+      <selection pane="bottomRight" activeCell="AA545" activeCellId="1" sqref="AA533:AA541 AA545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45313,7 +45325,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA533" s="5">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH533" s="5">
         <v>1</v>
@@ -45381,7 +45393,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA534" s="5">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH534" s="5">
         <v>1</v>
@@ -45449,7 +45461,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA535" s="5">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH535" s="5">
         <v>1</v>
@@ -45517,7 +45529,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA536" s="5">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH536" s="5">
         <v>1</v>
@@ -45585,7 +45597,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA537" s="5">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH537" s="5">
         <v>1</v>
@@ -45653,7 +45665,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA538" s="5">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH538" s="5">
         <v>1</v>
@@ -45721,7 +45733,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA539" s="5">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH539" s="5">
         <v>1</v>
@@ -45789,7 +45801,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA540" s="5">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH540" s="5">
         <v>1</v>
@@ -45857,7 +45869,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA541" s="5">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH541" s="5">
         <v>1</v>
@@ -46400,10 +46412,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47450,6 +47462,48 @@
         <v>1</v>
       </c>
       <c r="D73" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C74" s="50">
+        <v>1</v>
+      </c>
+      <c r="D74" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C75" s="50">
+        <v>1</v>
+      </c>
+      <c r="D75" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C76" s="50">
+        <v>1</v>
+      </c>
+      <c r="D76" s="50">
         <v>0</v>
       </c>
     </row>

--- a/config_2.2/shoping_config_cjj.xlsx
+++ b/config_2.2/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8247,10 +8247,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>60000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>86400,3,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8568,6 +8564,10 @@
   </si>
   <si>
     <t>49800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,20000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9399,8 +9399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11370,10 +11370,10 @@
   <dimension ref="A1:AN541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AA513" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="R510" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F541" sqref="F541"/>
+      <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42792,10 +42792,10 @@
         <v>1851</v>
       </c>
       <c r="R497" s="60" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="W497" s="62" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -42860,10 +42860,10 @@
         <v>1851</v>
       </c>
       <c r="R498" s="60" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="W498" s="62" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -42928,10 +42928,10 @@
         <v>1851</v>
       </c>
       <c r="R499" s="60" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="W499" s="62" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -42996,10 +42996,10 @@
         <v>1851</v>
       </c>
       <c r="R500" s="60" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="W500" s="62" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43064,10 +43064,10 @@
         <v>1851</v>
       </c>
       <c r="R501" s="60" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="W501" s="62" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43132,10 +43132,10 @@
         <v>1851</v>
       </c>
       <c r="R502" s="60" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="W502" s="62" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43200,10 +43200,10 @@
         <v>1861</v>
       </c>
       <c r="R503" s="61" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="W503" s="62" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43268,10 +43268,10 @@
         <v>1861</v>
       </c>
       <c r="R504" s="61" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="W504" s="62" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43336,10 +43336,10 @@
         <v>1861</v>
       </c>
       <c r="R505" s="61" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="W505" s="62" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43404,10 +43404,10 @@
         <v>1866</v>
       </c>
       <c r="R506" s="61" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="W506" s="62" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43472,10 +43472,10 @@
         <v>1866</v>
       </c>
       <c r="R507" s="61" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="W507" s="62" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43540,10 +43540,10 @@
         <v>1866</v>
       </c>
       <c r="R508" s="61" t="s">
+        <v>1973</v>
+      </c>
+      <c r="W508" s="62" t="s">
         <v>1974</v>
-      </c>
-      <c r="W508" s="62" t="s">
-        <v>1975</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -44394,10 +44394,10 @@
         <v>1922</v>
       </c>
       <c r="R521" s="10" t="s">
+        <v>2005</v>
+      </c>
+      <c r="W521" s="5" t="s">
         <v>1923</v>
-      </c>
-      <c r="W521" s="5" t="s">
-        <v>1924</v>
       </c>
       <c r="X521" s="5">
         <v>99999999</v>
@@ -44435,13 +44435,13 @@
         <v>1</v>
       </c>
       <c r="G522" s="5" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="I522" s="5" t="s">
         <v>1920</v>
       </c>
       <c r="J522" s="5" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="L522" s="5">
         <v>-33</v>
@@ -44459,10 +44459,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="5" t="s">
+        <v>1927</v>
+      </c>
+      <c r="R522" s="10" t="s">
         <v>1928</v>
-      </c>
-      <c r="R522" s="10" t="s">
-        <v>1929</v>
       </c>
       <c r="W522" s="5" t="s">
         <v>1063</v>
@@ -44503,13 +44503,13 @@
         <v>1</v>
       </c>
       <c r="G523" s="5" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I523" s="5" t="s">
         <v>1920</v>
       </c>
       <c r="J523" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="L523" s="5">
         <v>-33</v>
@@ -44527,10 +44527,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="R523" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="W523" s="5" t="s">
         <v>1063</v>
@@ -44571,13 +44571,13 @@
         <v>1</v>
       </c>
       <c r="G524" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="I524" s="5" t="s">
         <v>1920</v>
       </c>
       <c r="J524" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="L524" s="5">
         <v>-33</v>
@@ -44595,10 +44595,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="5" t="s">
+        <v>1937</v>
+      </c>
+      <c r="R524" s="10" t="s">
         <v>1938</v>
-      </c>
-      <c r="R524" s="10" t="s">
-        <v>1939</v>
       </c>
       <c r="W524" s="5" t="s">
         <v>1063</v>
@@ -44642,10 +44642,10 @@
         <v>1919</v>
       </c>
       <c r="I525" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="J525" s="5" t="s">
         <v>1941</v>
-      </c>
-      <c r="J525" s="5" t="s">
-        <v>1942</v>
       </c>
       <c r="L525" s="5">
         <v>-33</v>
@@ -44663,10 +44663,10 @@
         <v>1800</v>
       </c>
       <c r="Q525" s="5" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="R525" s="10" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="W525" s="5" t="s">
         <v>1063</v>
@@ -44707,13 +44707,13 @@
         <v>1</v>
       </c>
       <c r="G526" s="5" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="I526" s="5" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="J526" s="5" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="L526" s="5">
         <v>-33</v>
@@ -44731,10 +44731,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="5" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="R526" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="W526" s="5" t="s">
         <v>1063</v>
@@ -44775,13 +44775,13 @@
         <v>1</v>
       </c>
       <c r="G527" s="5" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I527" s="5" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="J527" s="5" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="L527" s="5">
         <v>-33</v>
@@ -44799,10 +44799,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="R527" s="10" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="W527" s="5" t="s">
         <v>1063</v>
@@ -44843,13 +44843,13 @@
         <v>1</v>
       </c>
       <c r="G528" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="I528" s="5" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="J528" s="5" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="L528" s="5">
         <v>-33</v>
@@ -44867,10 +44867,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="5" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="R528" s="10" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="W528" s="5" t="s">
         <v>1063</v>
@@ -44914,10 +44914,10 @@
         <v>1919</v>
       </c>
       <c r="I529" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="J529" s="5" t="s">
         <v>1953</v>
-      </c>
-      <c r="J529" s="5" t="s">
-        <v>1954</v>
       </c>
       <c r="L529" s="5">
         <v>-33</v>
@@ -44935,10 +44935,10 @@
         <v>4800</v>
       </c>
       <c r="Q529" s="5" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="R529" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="W529" s="5" t="s">
         <v>1063</v>
@@ -44979,13 +44979,13 @@
         <v>1</v>
       </c>
       <c r="G530" s="5" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="I530" s="5" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="J530" s="5" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="L530" s="5">
         <v>-33</v>
@@ -45003,10 +45003,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="5" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="R530" s="10" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="W530" s="5" t="s">
         <v>1063</v>
@@ -45047,13 +45047,13 @@
         <v>1</v>
       </c>
       <c r="G531" s="5" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I531" s="5" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="J531" s="5" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="L531" s="5">
         <v>-33</v>
@@ -45071,10 +45071,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="R531" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="W531" s="5" t="s">
         <v>1063</v>
@@ -45115,13 +45115,13 @@
         <v>1</v>
       </c>
       <c r="G532" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="I532" s="5" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J532" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="L532" s="5">
         <v>-33</v>
@@ -45139,10 +45139,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="R532" s="10" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="W532" s="5" t="s">
         <v>1063</v>
@@ -45183,13 +45183,13 @@
         <v>1</v>
       </c>
       <c r="G533" s="62" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I533" s="62" t="s">
         <v>1119</v>
       </c>
       <c r="J533" s="62" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="L533" s="62">
         <v>-31</v>
@@ -45207,13 +45207,13 @@
         <v>1800</v>
       </c>
       <c r="Q533" s="62" t="s">
+        <v>1978</v>
+      </c>
+      <c r="R533" s="60" t="s">
         <v>1979</v>
       </c>
-      <c r="R533" s="60" t="s">
+      <c r="W533" s="62" t="s">
         <v>1980</v>
-      </c>
-      <c r="W533" s="62" t="s">
-        <v>1981</v>
       </c>
       <c r="X533" s="62">
         <v>9999999</v>
@@ -45251,7 +45251,7 @@
         <v>1</v>
       </c>
       <c r="G534" s="62" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="I534" s="62" t="s">
         <v>1119</v>
@@ -45269,7 +45269,7 @@
         <v>0</v>
       </c>
       <c r="O534" s="62" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="P534" s="62">
         <v>3000</v>
@@ -45278,10 +45278,10 @@
         <v>1157</v>
       </c>
       <c r="R534" s="60" t="s">
+        <v>1983</v>
+      </c>
+      <c r="W534" s="62" t="s">
         <v>1984</v>
-      </c>
-      <c r="W534" s="62" t="s">
-        <v>1985</v>
       </c>
       <c r="X534" s="62">
         <v>9999999</v>
@@ -45319,13 +45319,13 @@
         <v>1</v>
       </c>
       <c r="G535" s="62" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I535" s="62" t="s">
         <v>1986</v>
       </c>
-      <c r="I535" s="62" t="s">
+      <c r="J535" s="62" t="s">
         <v>1987</v>
-      </c>
-      <c r="J535" s="62" t="s">
-        <v>1988</v>
       </c>
       <c r="L535" s="62">
         <v>-31</v>
@@ -45337,19 +45337,19 @@
         <v>0</v>
       </c>
       <c r="O535" s="62" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="P535" s="62">
         <v>4800</v>
       </c>
       <c r="Q535" s="62" t="s">
+        <v>1989</v>
+      </c>
+      <c r="R535" s="60" t="s">
         <v>1990</v>
       </c>
-      <c r="R535" s="60" t="s">
-        <v>1991</v>
-      </c>
       <c r="W535" s="62" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="X535" s="62">
         <v>9999999</v>
@@ -45387,7 +45387,7 @@
         <v>1</v>
       </c>
       <c r="G536" s="63" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I536" s="63" t="s">
         <v>1080</v>
@@ -45405,19 +45405,19 @@
         <v>0</v>
       </c>
       <c r="O536" s="63" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="P536" s="63">
         <v>4800</v>
       </c>
       <c r="Q536" s="63" t="s">
+        <v>1991</v>
+      </c>
+      <c r="R536" s="61" t="s">
         <v>1992</v>
       </c>
-      <c r="R536" s="61" t="s">
-        <v>1993</v>
-      </c>
       <c r="W536" s="63" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="X536" s="63">
         <v>9999999</v>
@@ -45455,13 +45455,13 @@
         <v>1</v>
       </c>
       <c r="G537" s="63" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="I537" s="63" t="s">
+        <v>1993</v>
+      </c>
+      <c r="J537" s="63" t="s">
         <v>1994</v>
-      </c>
-      <c r="J537" s="63" t="s">
-        <v>1995</v>
       </c>
       <c r="L537" s="63">
         <v>-31</v>
@@ -45479,13 +45479,13 @@
         <v>9800</v>
       </c>
       <c r="Q537" s="63" t="s">
+        <v>1995</v>
+      </c>
+      <c r="R537" s="61" t="s">
         <v>1996</v>
       </c>
-      <c r="R537" s="61" t="s">
-        <v>1997</v>
-      </c>
       <c r="W537" s="63" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="X537" s="63">
         <v>9999999</v>
@@ -45523,10 +45523,10 @@
         <v>1</v>
       </c>
       <c r="G538" s="63" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="I538" s="63" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="J538" s="63" t="s">
         <v>1150</v>
@@ -45550,10 +45550,10 @@
         <v>1161</v>
       </c>
       <c r="R538" s="61" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="W538" s="63" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X538" s="63">
         <v>9999999</v>
@@ -45591,10 +45591,10 @@
         <v>1</v>
       </c>
       <c r="G539" s="62" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I539" s="62" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="J539" s="62" t="s">
         <v>1151</v>
@@ -45615,13 +45615,13 @@
         <v>9800</v>
       </c>
       <c r="Q539" s="62" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="R539" s="60" t="s">
         <v>1776</v>
       </c>
       <c r="W539" s="62" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="X539" s="62">
         <v>9999999</v>
@@ -45659,10 +45659,10 @@
         <v>1</v>
       </c>
       <c r="G540" s="62" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="I540" s="62" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="J540" s="62" t="s">
         <v>1152</v>
@@ -45686,10 +45686,10 @@
         <v>1162</v>
       </c>
       <c r="R540" s="60" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="W540" s="62" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X540" s="62">
         <v>9999999</v>
@@ -45727,13 +45727,13 @@
         <v>1</v>
       </c>
       <c r="G541" s="62" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="I541" s="62" t="s">
+        <v>2001</v>
+      </c>
+      <c r="J541" s="62" t="s">
         <v>2002</v>
-      </c>
-      <c r="J541" s="62" t="s">
-        <v>2003</v>
       </c>
       <c r="L541" s="62">
         <v>-31</v>
@@ -45745,7 +45745,7 @@
         <v>0</v>
       </c>
       <c r="O541" s="62" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="P541" s="62">
         <v>49800</v>
@@ -45754,10 +45754,10 @@
         <v>1163</v>
       </c>
       <c r="R541" s="60" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="W541" s="62" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="X541" s="62">
         <v>9999999</v>
@@ -46810,7 +46810,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C71" s="50">
         <v>1</v>
@@ -46824,7 +46824,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C72" s="50">
         <v>1</v>
@@ -46838,7 +46838,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C73" s="50">
         <v>1</v>

--- a/config_2.2/shoping_config_cjj.xlsx
+++ b/config_2.2/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="2006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="2025">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8568,6 +8568,82 @@
   </si>
   <si>
     <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8639,7 +8715,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8700,6 +8776,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8743,7 +8825,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8933,7 +9015,13 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11367,13 +11455,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN541"/>
+  <dimension ref="A1:AN548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="R510" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="R519" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
+      <selection pane="bottomRight" activeCell="C546" sqref="C546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45172,615 +45260,1133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>532</v>
       </c>
-      <c r="B533" s="62">
+      <c r="B533" s="5">
         <v>10449</v>
       </c>
-      <c r="F533" s="62">
-        <v>1</v>
-      </c>
-      <c r="G533" s="62" t="s">
+      <c r="F533" s="5">
+        <v>1</v>
+      </c>
+      <c r="G533" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I533" s="62" t="s">
+      <c r="I533" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="J533" s="62" t="s">
+      <c r="J533" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="L533" s="62">
+      <c r="L533" s="5">
         <v>-31</v>
       </c>
-      <c r="M533" s="62">
-        <v>0</v>
-      </c>
-      <c r="N533" s="62">
-        <v>0</v>
-      </c>
-      <c r="O533" s="62" t="s">
+      <c r="M533" s="5">
+        <v>0</v>
+      </c>
+      <c r="N533" s="5">
+        <v>0</v>
+      </c>
+      <c r="O533" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P533" s="62">
+      <c r="P533" s="5">
         <v>1800</v>
       </c>
-      <c r="Q533" s="62" t="s">
+      <c r="Q533" s="5" t="s">
         <v>1978</v>
       </c>
-      <c r="R533" s="60" t="s">
+      <c r="R533" s="10" t="s">
         <v>1979</v>
       </c>
-      <c r="W533" s="62" t="s">
+      <c r="W533" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="X533" s="62">
+      <c r="X533" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y533" s="62">
+      <c r="Y533" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z533" s="62">
+      <c r="Z533" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA533" s="62">
+      <c r="AA533" s="5">
         <v>44</v>
       </c>
-      <c r="AH533" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI533" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL533" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM533" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>533</v>
       </c>
-      <c r="B534" s="62">
+      <c r="B534" s="5">
         <v>10450</v>
       </c>
-      <c r="F534" s="62">
-        <v>1</v>
-      </c>
-      <c r="G534" s="62" t="s">
+      <c r="F534" s="5">
+        <v>1</v>
+      </c>
+      <c r="G534" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="I534" s="62" t="s">
+      <c r="I534" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="J534" s="62" t="s">
+      <c r="J534" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="L534" s="62">
+      <c r="L534" s="5">
         <v>-31</v>
       </c>
-      <c r="M534" s="62">
-        <v>0</v>
-      </c>
-      <c r="N534" s="62">
-        <v>0</v>
-      </c>
-      <c r="O534" s="62" t="s">
+      <c r="M534" s="5">
+        <v>0</v>
+      </c>
+      <c r="N534" s="5">
+        <v>0</v>
+      </c>
+      <c r="O534" s="5" t="s">
         <v>1982</v>
       </c>
-      <c r="P534" s="62">
+      <c r="P534" s="5">
         <v>3000</v>
       </c>
-      <c r="Q534" s="62" t="s">
+      <c r="Q534" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="R534" s="60" t="s">
+      <c r="R534" s="10" t="s">
         <v>1983</v>
       </c>
-      <c r="W534" s="62" t="s">
+      <c r="W534" s="5" t="s">
         <v>1984</v>
       </c>
-      <c r="X534" s="62">
+      <c r="X534" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y534" s="62">
+      <c r="Y534" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z534" s="62">
+      <c r="Z534" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA534" s="62">
+      <c r="AA534" s="5">
         <v>44</v>
       </c>
-      <c r="AH534" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI534" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL534" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM534" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>534</v>
       </c>
-      <c r="B535" s="62">
+      <c r="B535" s="5">
         <v>10451</v>
       </c>
-      <c r="F535" s="62">
-        <v>1</v>
-      </c>
-      <c r="G535" s="62" t="s">
+      <c r="F535" s="5">
+        <v>1</v>
+      </c>
+      <c r="G535" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="I535" s="62" t="s">
+      <c r="I535" s="5" t="s">
         <v>1986</v>
       </c>
-      <c r="J535" s="62" t="s">
+      <c r="J535" s="5" t="s">
         <v>1987</v>
       </c>
-      <c r="L535" s="62">
+      <c r="L535" s="5">
         <v>-31</v>
       </c>
-      <c r="M535" s="62">
-        <v>0</v>
-      </c>
-      <c r="N535" s="62">
-        <v>0</v>
-      </c>
-      <c r="O535" s="62" t="s">
+      <c r="M535" s="5">
+        <v>0</v>
+      </c>
+      <c r="N535" s="5">
+        <v>0</v>
+      </c>
+      <c r="O535" s="5" t="s">
         <v>1988</v>
       </c>
-      <c r="P535" s="62">
+      <c r="P535" s="5">
         <v>4800</v>
       </c>
-      <c r="Q535" s="62" t="s">
+      <c r="Q535" s="5" t="s">
         <v>1989</v>
       </c>
-      <c r="R535" s="60" t="s">
+      <c r="R535" s="10" t="s">
         <v>1990</v>
       </c>
-      <c r="W535" s="62" t="s">
+      <c r="W535" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="X535" s="62">
+      <c r="X535" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y535" s="62">
+      <c r="Y535" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z535" s="62">
+      <c r="Z535" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA535" s="62">
+      <c r="AA535" s="5">
         <v>44</v>
       </c>
-      <c r="AH535" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI535" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL535" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM535" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>535</v>
       </c>
-      <c r="B536" s="63">
+      <c r="B536" s="5">
         <v>10452</v>
       </c>
-      <c r="F536" s="63">
-        <v>1</v>
-      </c>
-      <c r="G536" s="63" t="s">
+      <c r="F536" s="5">
+        <v>1</v>
+      </c>
+      <c r="G536" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I536" s="63" t="s">
+      <c r="I536" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="J536" s="63" t="s">
+      <c r="J536" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="L536" s="63">
+      <c r="L536" s="5">
         <v>-31</v>
       </c>
-      <c r="M536" s="63">
-        <v>0</v>
-      </c>
-      <c r="N536" s="63">
-        <v>0</v>
-      </c>
-      <c r="O536" s="63" t="s">
+      <c r="M536" s="5">
+        <v>0</v>
+      </c>
+      <c r="N536" s="5">
+        <v>0</v>
+      </c>
+      <c r="O536" s="5" t="s">
         <v>1988</v>
       </c>
-      <c r="P536" s="63">
+      <c r="P536" s="5">
         <v>4800</v>
       </c>
-      <c r="Q536" s="63" t="s">
+      <c r="Q536" s="5" t="s">
         <v>1991</v>
       </c>
-      <c r="R536" s="61" t="s">
+      <c r="R536" s="10" t="s">
         <v>1992</v>
       </c>
-      <c r="W536" s="63" t="s">
+      <c r="W536" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="X536" s="63">
+      <c r="X536" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y536" s="63">
+      <c r="Y536" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z536" s="63">
+      <c r="Z536" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA536" s="63">
+      <c r="AA536" s="5">
         <v>45</v>
       </c>
-      <c r="AH536" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI536" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL536" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM536" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>536</v>
       </c>
-      <c r="B537" s="63">
+      <c r="B537" s="5">
         <v>10453</v>
       </c>
-      <c r="F537" s="63">
-        <v>1</v>
-      </c>
-      <c r="G537" s="63" t="s">
+      <c r="F537" s="5">
+        <v>1</v>
+      </c>
+      <c r="G537" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="I537" s="63" t="s">
+      <c r="I537" s="5" t="s">
         <v>1993</v>
       </c>
-      <c r="J537" s="63" t="s">
+      <c r="J537" s="5" t="s">
         <v>1994</v>
       </c>
-      <c r="L537" s="63">
+      <c r="L537" s="5">
         <v>-31</v>
       </c>
-      <c r="M537" s="63">
-        <v>0</v>
-      </c>
-      <c r="N537" s="63">
-        <v>0</v>
-      </c>
-      <c r="O537" s="63" t="s">
+      <c r="M537" s="5">
+        <v>0</v>
+      </c>
+      <c r="N537" s="5">
+        <v>0</v>
+      </c>
+      <c r="O537" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P537" s="63">
+      <c r="P537" s="5">
         <v>9800</v>
       </c>
-      <c r="Q537" s="63" t="s">
+      <c r="Q537" s="5" t="s">
         <v>1995</v>
       </c>
-      <c r="R537" s="61" t="s">
+      <c r="R537" s="10" t="s">
         <v>1996</v>
       </c>
-      <c r="W537" s="63" t="s">
+      <c r="W537" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="X537" s="63">
+      <c r="X537" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y537" s="63">
+      <c r="Y537" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z537" s="63">
+      <c r="Z537" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA537" s="63">
+      <c r="AA537" s="5">
         <v>45</v>
       </c>
-      <c r="AH537" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI537" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL537" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM537" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>537</v>
       </c>
-      <c r="B538" s="63">
+      <c r="B538" s="5">
         <v>10454</v>
       </c>
-      <c r="F538" s="63">
-        <v>1</v>
-      </c>
-      <c r="G538" s="63" t="s">
+      <c r="F538" s="5">
+        <v>1</v>
+      </c>
+      <c r="G538" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="I538" s="63" t="s">
+      <c r="I538" s="5" t="s">
         <v>1997</v>
       </c>
-      <c r="J538" s="63" t="s">
+      <c r="J538" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="L538" s="63">
+      <c r="L538" s="5">
         <v>-31</v>
       </c>
-      <c r="M538" s="63">
-        <v>0</v>
-      </c>
-      <c r="N538" s="63">
-        <v>0</v>
-      </c>
-      <c r="O538" s="63" t="s">
+      <c r="M538" s="5">
+        <v>0</v>
+      </c>
+      <c r="N538" s="5">
+        <v>0</v>
+      </c>
+      <c r="O538" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P538" s="63">
+      <c r="P538" s="5">
         <v>19800</v>
       </c>
-      <c r="Q538" s="63" t="s">
+      <c r="Q538" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="R538" s="61" t="s">
+      <c r="R538" s="10" t="s">
         <v>1998</v>
       </c>
-      <c r="W538" s="63" t="s">
+      <c r="W538" s="5" t="s">
         <v>1974</v>
       </c>
-      <c r="X538" s="63">
+      <c r="X538" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y538" s="63">
+      <c r="Y538" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z538" s="63">
+      <c r="Z538" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA538" s="63">
+      <c r="AA538" s="5">
         <v>45</v>
       </c>
-      <c r="AH538" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI538" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL538" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM538" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>538</v>
       </c>
-      <c r="B539" s="62">
+      <c r="B539" s="5">
         <v>10455</v>
       </c>
-      <c r="F539" s="62">
-        <v>1</v>
-      </c>
-      <c r="G539" s="62" t="s">
+      <c r="F539" s="5">
+        <v>1</v>
+      </c>
+      <c r="G539" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I539" s="62" t="s">
+      <c r="I539" s="5" t="s">
         <v>1999</v>
       </c>
-      <c r="J539" s="62" t="s">
+      <c r="J539" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="L539" s="62">
+      <c r="L539" s="5">
         <v>-31</v>
       </c>
-      <c r="M539" s="62">
-        <v>0</v>
-      </c>
-      <c r="N539" s="62">
-        <v>0</v>
-      </c>
-      <c r="O539" s="62" t="s">
+      <c r="M539" s="5">
+        <v>0</v>
+      </c>
+      <c r="N539" s="5">
+        <v>0</v>
+      </c>
+      <c r="O539" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P539" s="62">
+      <c r="P539" s="5">
         <v>9800</v>
       </c>
-      <c r="Q539" s="62" t="s">
+      <c r="Q539" s="5" t="s">
         <v>2000</v>
       </c>
-      <c r="R539" s="60" t="s">
+      <c r="R539" s="10" t="s">
         <v>1776</v>
       </c>
-      <c r="W539" s="62" t="s">
+      <c r="W539" s="5" t="s">
         <v>1984</v>
       </c>
-      <c r="X539" s="62">
+      <c r="X539" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y539" s="62">
+      <c r="Y539" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z539" s="62">
+      <c r="Z539" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA539" s="62">
+      <c r="AA539" s="5">
         <v>46</v>
       </c>
-      <c r="AH539" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI539" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL539" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM539" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>539</v>
       </c>
-      <c r="B540" s="62">
+      <c r="B540" s="5">
         <v>10456</v>
       </c>
-      <c r="F540" s="62">
-        <v>1</v>
-      </c>
-      <c r="G540" s="62" t="s">
+      <c r="F540" s="5">
+        <v>1</v>
+      </c>
+      <c r="G540" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="I540" s="62" t="s">
+      <c r="I540" s="5" t="s">
         <v>2001</v>
       </c>
-      <c r="J540" s="62" t="s">
+      <c r="J540" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="L540" s="62">
+      <c r="L540" s="5">
         <v>-31</v>
       </c>
-      <c r="M540" s="62">
-        <v>0</v>
-      </c>
-      <c r="N540" s="62">
-        <v>0</v>
-      </c>
-      <c r="O540" s="62" t="s">
+      <c r="M540" s="5">
+        <v>0</v>
+      </c>
+      <c r="N540" s="5">
+        <v>0</v>
+      </c>
+      <c r="O540" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="P540" s="62">
+      <c r="P540" s="5">
         <v>19800</v>
       </c>
-      <c r="Q540" s="62" t="s">
+      <c r="Q540" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="R540" s="60" t="s">
+      <c r="R540" s="10" t="s">
         <v>1998</v>
       </c>
-      <c r="W540" s="62" t="s">
+      <c r="W540" s="5" t="s">
         <v>1974</v>
       </c>
-      <c r="X540" s="62">
+      <c r="X540" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y540" s="62">
+      <c r="Y540" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z540" s="62">
+      <c r="Z540" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA540" s="62">
+      <c r="AA540" s="5">
         <v>46</v>
       </c>
-      <c r="AH540" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI540" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL540" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM540" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>540</v>
       </c>
-      <c r="B541" s="62">
+      <c r="B541" s="5">
         <v>10457</v>
       </c>
-      <c r="F541" s="62">
-        <v>1</v>
-      </c>
-      <c r="G541" s="62" t="s">
+      <c r="F541" s="5">
+        <v>1</v>
+      </c>
+      <c r="G541" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="I541" s="62" t="s">
+      <c r="I541" s="5" t="s">
         <v>2001</v>
       </c>
-      <c r="J541" s="62" t="s">
+      <c r="J541" s="5" t="s">
         <v>2002</v>
       </c>
-      <c r="L541" s="62">
+      <c r="L541" s="5">
         <v>-31</v>
       </c>
-      <c r="M541" s="62">
-        <v>0</v>
-      </c>
-      <c r="N541" s="62">
-        <v>0</v>
-      </c>
-      <c r="O541" s="62" t="s">
+      <c r="M541" s="5">
+        <v>0</v>
+      </c>
+      <c r="N541" s="5">
+        <v>0</v>
+      </c>
+      <c r="O541" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="P541" s="62">
+      <c r="P541" s="5">
         <v>49800</v>
       </c>
-      <c r="Q541" s="62" t="s">
+      <c r="Q541" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="R541" s="60" t="s">
+      <c r="R541" s="10" t="s">
         <v>2004</v>
       </c>
-      <c r="W541" s="62" t="s">
+      <c r="W541" s="5" t="s">
         <v>1974</v>
       </c>
-      <c r="X541" s="62">
+      <c r="X541" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y541" s="62">
+      <c r="Y541" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z541" s="62">
+      <c r="Z541" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA541" s="62">
+      <c r="AA541" s="5">
         <v>46</v>
       </c>
-      <c r="AH541" s="62">
-        <v>1</v>
-      </c>
-      <c r="AI541" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL541" s="62">
-        <v>1</v>
-      </c>
-      <c r="AM541" s="62">
+      <c r="AH541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>541</v>
+      </c>
+      <c r="B542" s="63">
+        <v>10458</v>
+      </c>
+      <c r="C542" s="63"/>
+      <c r="D542" s="63"/>
+      <c r="E542" s="63"/>
+      <c r="F542" s="63">
+        <v>0</v>
+      </c>
+      <c r="G542" s="63" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H542" s="63"/>
+      <c r="I542" s="63" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J542" s="63" t="s">
+        <v>2008</v>
+      </c>
+      <c r="K542" s="63"/>
+      <c r="L542" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M542" s="63">
+        <v>0</v>
+      </c>
+      <c r="N542" s="63">
+        <v>0</v>
+      </c>
+      <c r="O542" s="63" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P542" s="63">
+        <v>99800</v>
+      </c>
+      <c r="Q542" s="63" t="s">
+        <v>2010</v>
+      </c>
+      <c r="R542" s="64" t="s">
+        <v>2011</v>
+      </c>
+      <c r="S542" s="63"/>
+      <c r="T542" s="63"/>
+      <c r="U542" s="63"/>
+      <c r="V542" s="63"/>
+      <c r="W542" s="63" t="s">
+        <v>2012</v>
+      </c>
+      <c r="X542" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y542" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z542" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>542</v>
+      </c>
+      <c r="B543" s="63">
+        <v>10459</v>
+      </c>
+      <c r="C543" s="63"/>
+      <c r="D543" s="63"/>
+      <c r="E543" s="63"/>
+      <c r="F543" s="63">
+        <v>0</v>
+      </c>
+      <c r="G543" s="63" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H543" s="63"/>
+      <c r="I543" s="63" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J543" s="63" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K543" s="63"/>
+      <c r="L543" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M543" s="63">
+        <v>0</v>
+      </c>
+      <c r="N543" s="63">
+        <v>0</v>
+      </c>
+      <c r="O543" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P543" s="63">
+        <v>49800</v>
+      </c>
+      <c r="Q543" s="63" t="s">
+        <v>1490</v>
+      </c>
+      <c r="R543" s="64" t="s">
+        <v>1213</v>
+      </c>
+      <c r="S543" s="63"/>
+      <c r="T543" s="63"/>
+      <c r="U543" s="63"/>
+      <c r="V543" s="63"/>
+      <c r="W543" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X543" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y543" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z543" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>543</v>
+      </c>
+      <c r="B544" s="63">
+        <v>10460</v>
+      </c>
+      <c r="C544" s="63"/>
+      <c r="D544" s="63"/>
+      <c r="E544" s="63"/>
+      <c r="F544" s="63">
+        <v>0</v>
+      </c>
+      <c r="G544" s="63" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H544" s="63"/>
+      <c r="I544" s="63" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J544" s="63" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K544" s="63"/>
+      <c r="L544" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M544" s="63">
+        <v>0</v>
+      </c>
+      <c r="N544" s="63">
+        <v>0</v>
+      </c>
+      <c r="O544" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P544" s="63">
+        <v>29800</v>
+      </c>
+      <c r="Q544" s="63" t="s">
+        <v>1489</v>
+      </c>
+      <c r="R544" s="64" t="s">
+        <v>1217</v>
+      </c>
+      <c r="S544" s="63"/>
+      <c r="T544" s="63"/>
+      <c r="U544" s="63"/>
+      <c r="V544" s="63"/>
+      <c r="W544" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X544" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y544" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z544" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>544</v>
+      </c>
+      <c r="B545" s="63">
+        <v>10461</v>
+      </c>
+      <c r="C545" s="63"/>
+      <c r="D545" s="63"/>
+      <c r="E545" s="63"/>
+      <c r="F545" s="63">
+        <v>0</v>
+      </c>
+      <c r="G545" s="63" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H545" s="63"/>
+      <c r="I545" s="63" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J545" s="63" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K545" s="63"/>
+      <c r="L545" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M545" s="63">
+        <v>0</v>
+      </c>
+      <c r="N545" s="63">
+        <v>0</v>
+      </c>
+      <c r="O545" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P545" s="63">
+        <v>19800</v>
+      </c>
+      <c r="Q545" s="63" t="s">
+        <v>2017</v>
+      </c>
+      <c r="R545" s="64" t="s">
+        <v>1211</v>
+      </c>
+      <c r="S545" s="63"/>
+      <c r="T545" s="63"/>
+      <c r="U545" s="63"/>
+      <c r="V545" s="63"/>
+      <c r="W545" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X545" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y545" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z545" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>545</v>
+      </c>
+      <c r="B546" s="63">
+        <v>10462</v>
+      </c>
+      <c r="C546" s="63"/>
+      <c r="D546" s="63"/>
+      <c r="E546" s="63"/>
+      <c r="F546" s="63">
+        <v>0</v>
+      </c>
+      <c r="G546" s="63" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H546" s="63"/>
+      <c r="I546" s="63" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J546" s="63" t="s">
+        <v>2019</v>
+      </c>
+      <c r="K546" s="63"/>
+      <c r="L546" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M546" s="63">
+        <v>0</v>
+      </c>
+      <c r="N546" s="63">
+        <v>0</v>
+      </c>
+      <c r="O546" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P546" s="63">
+        <v>9800</v>
+      </c>
+      <c r="Q546" s="63" t="s">
+        <v>1489</v>
+      </c>
+      <c r="R546" s="64" t="s">
+        <v>1307</v>
+      </c>
+      <c r="S546" s="63"/>
+      <c r="T546" s="63"/>
+      <c r="U546" s="63"/>
+      <c r="V546" s="63"/>
+      <c r="W546" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X546" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y546" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z546" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>546</v>
+      </c>
+      <c r="B547" s="63">
+        <v>10463</v>
+      </c>
+      <c r="C547" s="63"/>
+      <c r="D547" s="63"/>
+      <c r="E547" s="63"/>
+      <c r="F547" s="63">
+        <v>0</v>
+      </c>
+      <c r="G547" s="63" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H547" s="63"/>
+      <c r="I547" s="63" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J547" s="63" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K547" s="63"/>
+      <c r="L547" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M547" s="63">
+        <v>0</v>
+      </c>
+      <c r="N547" s="63">
+        <v>0</v>
+      </c>
+      <c r="O547" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P547" s="63">
+        <v>4800</v>
+      </c>
+      <c r="Q547" s="63" t="s">
+        <v>2022</v>
+      </c>
+      <c r="R547" s="64" t="s">
+        <v>2023</v>
+      </c>
+      <c r="S547" s="63"/>
+      <c r="T547" s="63"/>
+      <c r="U547" s="63"/>
+      <c r="V547" s="63"/>
+      <c r="W547" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X547" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y547" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z547" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>547</v>
+      </c>
+      <c r="B548" s="63">
+        <v>10464</v>
+      </c>
+      <c r="C548" s="63"/>
+      <c r="D548" s="63"/>
+      <c r="E548" s="63"/>
+      <c r="F548" s="63">
+        <v>0</v>
+      </c>
+      <c r="G548" s="63" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H548" s="63"/>
+      <c r="I548" s="63" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J548" s="63" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K548" s="63"/>
+      <c r="L548" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M548" s="63">
+        <v>0</v>
+      </c>
+      <c r="N548" s="63">
+        <v>0</v>
+      </c>
+      <c r="O548" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="P548" s="63">
+        <v>1800</v>
+      </c>
+      <c r="Q548" s="63" t="s">
+        <v>2022</v>
+      </c>
+      <c r="R548" s="64" t="s">
+        <v>1785</v>
+      </c>
+      <c r="S548" s="63"/>
+      <c r="T548" s="63"/>
+      <c r="U548" s="63"/>
+      <c r="V548" s="63"/>
+      <c r="W548" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X548" s="63">
+        <v>9999999</v>
+      </c>
+      <c r="Y548" s="65">
+        <v>1612224000</v>
+      </c>
+      <c r="Z548" s="65">
+        <v>1612799999</v>
+      </c>
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
         <v>1</v>
       </c>
     </row>
